--- a/BasicMod-master/一般卡.xlsx
+++ b/BasicMod-master/一般卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14450" windowHeight="10790"/>
+    <workbookView windowWidth="17930" windowHeight="10790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>卡牌</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>闪耀溢出生命值转化为临时生命上限</t>
+  </si>
+  <si>
+    <t>等价交换</t>
+  </si>
+  <si>
+    <t>抽一牌，弹回</t>
+  </si>
+  <si>
+    <t>重力喷涌</t>
+  </si>
+  <si>
+    <t>获得1点重力，每有一点重力抽一张牌</t>
+  </si>
+  <si>
+    <t>两点</t>
   </si>
 </sst>
 </file>
@@ -982,13 +997,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="73.8181818181818" customWidth="1"/>
@@ -1046,6 +1061,34 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/BasicMod-master/一般卡.xlsx
+++ b/BasicMod-master/一般卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17930" windowHeight="10790"/>
+    <workbookView windowWidth="24930" windowHeight="13190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>卡牌</t>
   </si>
@@ -31,6 +31,9 @@
     <t>随机稀有度的音乐牌</t>
   </si>
   <si>
+    <t>rare</t>
+  </si>
+  <si>
     <t>收集</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>升级过的素材</t>
   </si>
   <si>
+    <t>uncommon</t>
+  </si>
+  <si>
     <t>传达心意</t>
   </si>
   <si>
@@ -59,6 +65,57 @@
   </si>
   <si>
     <t>两点</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>一起迷失吧</t>
+  </si>
+  <si>
+    <t>重力和闪耀可以同时存在，获得一点重力和一点闪耀</t>
+  </si>
+  <si>
+    <t>告白</t>
+  </si>
+  <si>
+    <t>重力层数翻倍，消耗</t>
+  </si>
+  <si>
+    <t>光芒携我同行</t>
+  </si>
+  <si>
+    <t>每有一点闪耀获得一点能量</t>
+  </si>
+  <si>
+    <t>最后的温柔</t>
+  </si>
+  <si>
+    <t>交换闪耀和重力层数</t>
+  </si>
+  <si>
+    <t>水族馆年票</t>
+  </si>
+  <si>
+    <t>可以替代任何uncommon素材</t>
+  </si>
+  <si>
+    <t>替代rare</t>
+  </si>
+  <si>
+    <t>触发连招</t>
+  </si>
+  <si>
+    <t>出一张牌，自动打出牌库顶的牌，直到类型不一样</t>
+  </si>
+  <si>
+    <t>微笑的星屑</t>
+  </si>
+  <si>
+    <t>获得1点闪耀，如果有10点闪耀获得永久形态，该形态在玩家死亡时给予玩家星盾</t>
+  </si>
+  <si>
+    <t>2点闪耀</t>
   </si>
 </sst>
 </file>
@@ -997,13 +1054,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="73.8181818181818" customWidth="1"/>
@@ -1019,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1032,27 +1089,33 @@
       <c r="D2">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1060,13 +1123,16 @@
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1074,19 +1140,144 @@
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/BasicMod-master/一般卡.xlsx
+++ b/BasicMod-master/一般卡.xlsx
@@ -109,7 +109,7 @@
     <t>出一张牌，自动打出牌库顶的牌，直到类型不一样</t>
   </si>
   <si>
-    <t>微笑的星屑</t>
+    <t>微小的星屑</t>
   </si>
   <si>
     <t>获得1点闪耀，如果有10点闪耀获得永久形态，该形态在玩家死亡时给予玩家星盾</t>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/BasicMod-master/一般卡.xlsx
+++ b/BasicMod-master/一般卡.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>卡牌</t>
   </si>
@@ -107,15 +107,6 @@
   </si>
   <si>
     <t>出一张牌，自动打出牌库顶的牌，直到类型不一样</t>
-  </si>
-  <si>
-    <t>微小的星屑</t>
-  </si>
-  <si>
-    <t>获得1点闪耀，如果有10点闪耀获得永久形态，该形态在玩家死亡时给予玩家星盾</t>
-  </si>
-  <si>
-    <t>2点闪耀</t>
   </si>
 </sst>
 </file>
@@ -1054,10 +1045,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1263,23 +1254,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/BasicMod-master/一般卡.xlsx
+++ b/BasicMod-master/一般卡.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>卡牌</t>
   </si>
@@ -107,6 +107,24 @@
   </si>
   <si>
     <t>出一张牌，自动打出牌库顶的牌，直到类型不一样</t>
+  </si>
+  <si>
+    <t>主唱太拼命了</t>
+  </si>
+  <si>
+    <t>减5血抽2牌获得2耗能</t>
+  </si>
+  <si>
+    <t>偏离世界</t>
+  </si>
+  <si>
+    <t>攻击触发重力效果</t>
+  </si>
+  <si>
+    <t>回收</t>
+  </si>
+  <si>
+    <t>将消耗牌堆中的牌加入抽牌堆</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1063,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1254,6 +1272,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/BasicMod-master/一般卡.xlsx
+++ b/BasicMod-master/一般卡.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>卡牌</t>
   </si>
@@ -125,6 +125,27 @@
   </si>
   <si>
     <t>将消耗牌堆中的牌加入抽牌堆</t>
+  </si>
+  <si>
+    <t>你的十连</t>
+  </si>
+  <si>
+    <t>将10张高松灯的卡牌置入手牌</t>
+  </si>
+  <si>
+    <t>升级过的</t>
+  </si>
+  <si>
+    <t>以诗代歌</t>
+  </si>
+  <si>
+    <t>移除所有负面效果，每移除一层获得一点闪耀</t>
+  </si>
+  <si>
+    <t>空白的乐章</t>
+  </si>
+  <si>
+    <t>记录目标的意图伤害和攻击次数</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1323,6 +1344,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
